--- a/ToolBaoCao/App_Data/plthang-MoTa.xlsx
+++ b/ToolBaoCao/App_Data/plthang-MoTa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\AChuong\ToolBaoCao\ToolBaoCao\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0EEF4C-AE2F-4D30-9BDA-D05C7487725A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C31D92B-BA1E-44D5-8C2B-CA11D563E2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PL01" sheetId="5" r:id="rId1"/>
@@ -8444,7 +8444,7 @@
     <xf numFmtId="164" fontId="1444" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1450" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1537">
+  <cellXfs count="1538">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12592,6 +12592,9 @@
     <xf numFmtId="0" fontId="1453" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1453" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1453" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12910,8 +12913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12934,7 +12937,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1530" t="s">
         <v>770</v>
       </c>
@@ -12944,10 +12947,10 @@
       <c r="C3" s="1530" t="s">
         <v>798</v>
       </c>
-      <c r="D3" s="1530" t="s">
+      <c r="D3" s="1537" t="s">
         <v>771</v>
       </c>
-      <c r="E3" s="1530" t="s">
+      <c r="E3" s="1537" t="s">
         <v>799</v>
       </c>
     </row>
@@ -13243,8 +13246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
